--- a/biology/Médecine/Muscle_tenseur_du_fascia_lata/Muscle_tenseur_du_fascia_lata.xlsx
+++ b/biology/Médecine/Muscle_tenseur_du_fascia_lata/Muscle_tenseur_du_fascia_lata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tenseur du fascia lata est un muscle du membre inférieur situé sur la face latérale de la cuisse. Il fait partie des muscles fessiers superficiels avec les muscles petit glutéal, moyen glutéal et grand glutéal.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tenseur du fascia lata est un muscle très fin et peu puissant qui relie l'os coxal au tibia par l’intermédiaire du tractus ilio-tibial.
 </t>
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le muscle tenseur du fascia lata se fixe sur :
 le cinquième antérieur de la lèvre latérale de la crête iliaque et sur l'épine iliaque antérieure et supérieure,
@@ -574,7 +590,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tenseur du fascia lata descend obliquement en arrière. Son corps musculaire quadrilatère devient très vite tendineux.
 </t>
@@ -605,7 +623,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tenseur du fascia lata se termine sur le quart supérieur du bord antérieur du tractus ilio-tibial qui descend verticalement sur la face antéro-latérale de la cuisse pour se terminer sur le tubercule infra-condylaire sous le plateau tibial latéral du tibia.
 </t>
@@ -636,7 +656,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle tenseur du fascia lata est innervé par le nerf glutéal supérieur.
 </t>
@@ -667,7 +689,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par l'artère circonflexe fémorale antérieure et par une branche de l'artère glutéale supérieure.
 </t>
@@ -698,7 +722,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il agit comme :
 abducteur et rotateur médial accessoire de la cuisse.
